--- a/MapFiles/text.xlsx
+++ b/MapFiles/text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目文件夹\陈良方\我的坚果云\代码\cosmo_private\MapFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005129EA-39F7-4E6B-8657-BF40FDD0BA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BBF898-A805-4A0C-BC2D-D07AF289780F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>项目简称</t>
   </si>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t xml:space="preserve">340521199   020130   5037X  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -397,7 +401,7 @@
     <col min="5" max="5" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,8 +417,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -429,6 +436,9 @@
       </c>
       <c r="E2" s="2">
         <v>0.50344999999999995</v>
+      </c>
+      <c r="F2">
+        <v>2088</v>
       </c>
     </row>
   </sheetData>
